--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c83f828cd38edfff/Υπολογιστής/pre-LiNG Dataset/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar1st\Desktop\Predicting-Litterature-Level\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="14_{8BB27C19-C288-4F24-9117-F08768DB7C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E40F10-3D36-4E36-8454-AFC4BCA43FB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1BB11D-8F3F-410A-A04E-77CB15D36B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2442,11 +2442,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2462,10 +2457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2733,23 +2724,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="82.7109375" customWidth="1"/>
+    <col min="1" max="1" width="82.7265625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2795,7 +2786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2830,12 +2821,12 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -2858,7 +2849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -2881,7 +2872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2904,12 +2895,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -2935,7 +2926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2958,7 +2949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2981,7 +2972,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -3007,7 +2998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3030,7 +3021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>107</v>
       </c>
@@ -3056,7 +3047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -3079,7 +3070,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -3102,7 +3093,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -3125,7 +3116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -3148,7 +3139,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -3171,7 +3162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -3194,7 +3185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -3231,7 +3222,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>143</v>
       </c>
@@ -3254,7 +3245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>144</v>
       </c>
@@ -3277,7 +3268,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>145</v>
       </c>
@@ -3300,7 +3291,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>146</v>
       </c>
@@ -3323,7 +3314,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>147</v>
       </c>
@@ -3346,7 +3337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>148</v>
       </c>
@@ -3369,7 +3360,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>150</v>
       </c>
@@ -3392,7 +3383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>151</v>
       </c>
@@ -3415,7 +3406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>152</v>
       </c>
@@ -3438,7 +3429,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>161</v>
       </c>
@@ -3461,7 +3452,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>153</v>
       </c>
@@ -3484,7 +3475,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>154</v>
       </c>
@@ -3507,7 +3498,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>155</v>
       </c>
@@ -3530,7 +3521,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>156</v>
       </c>
@@ -3553,7 +3544,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>212</v>
       </c>
@@ -3576,7 +3567,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>209</v>
       </c>
@@ -3599,7 +3590,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>420</v>
       </c>
@@ -3611,7 +3602,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>145</v>
       </c>
@@ -3634,7 +3625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>213</v>
       </c>
@@ -3657,7 +3648,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -3680,7 +3671,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>215</v>
       </c>
@@ -3703,7 +3694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>216</v>
       </c>
@@ -3726,7 +3717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>217</v>
       </c>
@@ -3749,7 +3740,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>218</v>
       </c>
@@ -3772,7 +3763,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>270</v>
       </c>
@@ -3795,7 +3786,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>219</v>
       </c>
@@ -3818,7 +3809,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>220</v>
       </c>
@@ -3841,7 +3832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>221</v>
       </c>
@@ -3864,7 +3855,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>222</v>
       </c>
@@ -3887,7 +3878,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>223</v>
       </c>
@@ -3910,7 +3901,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>224</v>
       </c>
@@ -3933,7 +3924,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>225</v>
       </c>
@@ -3957,7 +3948,7 @@
       </c>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>226</v>
       </c>
@@ -3980,7 +3971,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>239</v>
       </c>
@@ -4003,7 +3994,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>240</v>
       </c>
@@ -4026,7 +4017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>241</v>
       </c>
@@ -4049,7 +4040,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>242</v>
       </c>
@@ -4072,7 +4063,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>243</v>
       </c>
@@ -4095,7 +4086,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>244</v>
       </c>
@@ -4118,7 +4109,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>245</v>
       </c>
@@ -4141,7 +4132,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>246</v>
       </c>
@@ -4164,7 +4155,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>247</v>
       </c>
@@ -4187,7 +4178,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>248</v>
       </c>
@@ -4210,7 +4201,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>237</v>
       </c>
@@ -4233,7 +4224,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>238</v>
       </c>
@@ -4257,7 +4248,7 @@
       </c>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>236</v>
       </c>
@@ -4280,7 +4271,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>235</v>
       </c>
@@ -4303,7 +4294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>232</v>
       </c>
@@ -4326,7 +4317,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>231</v>
       </c>
@@ -4349,7 +4340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>230</v>
       </c>
@@ -4372,7 +4363,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>227</v>
       </c>
@@ -4395,7 +4386,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>228</v>
       </c>
@@ -4418,7 +4409,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>233</v>
       </c>
@@ -4441,7 +4432,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>234</v>
       </c>
@@ -4464,7 +4455,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>212</v>
       </c>
@@ -4487,7 +4478,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>229</v>
       </c>
@@ -4510,7 +4501,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>378</v>
       </c>
@@ -4534,7 +4525,7 @@
       </c>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -4557,7 +4548,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>386</v>
       </c>
@@ -4580,7 +4571,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>389</v>
       </c>
@@ -4603,7 +4594,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
@@ -4626,7 +4617,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>397</v>
       </c>
@@ -4649,7 +4640,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>402</v>
       </c>
@@ -4672,7 +4663,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -4695,7 +4686,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>410</v>
       </c>
@@ -4718,7 +4709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>412</v>
       </c>
@@ -4741,7 +4732,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>416</v>
       </c>
@@ -4764,12 +4755,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>41</v>
       </c>
@@ -4795,7 +4786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>107</v>
       </c>
@@ -4818,7 +4809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -4841,7 +4832,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -4864,7 +4855,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -4887,7 +4878,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4910,7 +4901,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -4933,7 +4924,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -4956,7 +4947,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>430</v>
       </c>
@@ -4979,7 +4970,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>434</v>
       </c>
@@ -5002,7 +4993,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>144</v>
       </c>
@@ -5025,7 +5016,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>485</v>
       </c>
@@ -5048,7 +5039,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>486</v>
       </c>
@@ -5071,7 +5062,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>487</v>
       </c>
@@ -5094,7 +5085,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>148</v>
       </c>
@@ -5117,7 +5108,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>493</v>
       </c>
@@ -5140,7 +5131,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>494</v>
       </c>
@@ -5163,7 +5154,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>495</v>
       </c>
@@ -5186,7 +5177,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>500</v>
       </c>
@@ -5209,7 +5200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>499</v>
       </c>
@@ -5232,7 +5223,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>501</v>
       </c>
@@ -5255,7 +5246,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>502</v>
       </c>
@@ -5278,7 +5269,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>156</v>
       </c>
@@ -5301,7 +5292,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>683</v>
       </c>
@@ -5324,7 +5315,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>686</v>
       </c>
@@ -5347,7 +5338,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>689</v>
       </c>
@@ -5370,7 +5361,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>509</v>
       </c>
@@ -5393,7 +5384,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>510</v>
       </c>
@@ -5416,7 +5407,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="24" t="s">
         <v>420</v>
       </c>
@@ -5427,7 +5418,7 @@
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>485</v>
       </c>
@@ -5450,7 +5441,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>511</v>
       </c>
@@ -5473,7 +5464,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
         <v>519</v>
       </c>
@@ -5496,7 +5487,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>514</v>
       </c>
@@ -5519,7 +5510,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>525</v>
       </c>
@@ -5542,7 +5533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>520</v>
       </c>
@@ -5565,7 +5556,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>515</v>
       </c>
@@ -5588,7 +5579,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>537</v>
       </c>
@@ -5611,7 +5602,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>541</v>
       </c>
@@ -5634,7 +5625,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>542</v>
       </c>
@@ -5657,7 +5648,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>547</v>
       </c>
@@ -5680,7 +5671,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>548</v>
       </c>
@@ -5703,7 +5694,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>552</v>
       </c>
@@ -5726,76 +5717,76 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" s="25" t="s">
+      <c r="B141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" t="s">
         <v>533</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="D141" t="s">
         <v>555</v>
       </c>
-      <c r="E141" s="25" t="s">
+      <c r="E141" t="s">
         <v>533</v>
       </c>
-      <c r="F141" s="25" t="s">
+      <c r="F141" t="s">
         <v>556</v>
       </c>
-      <c r="G141" s="25" t="s">
+      <c r="G141" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B142" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C142" s="25" t="s">
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" t="s">
         <v>695</v>
       </c>
-      <c r="D142" s="25" t="s">
+      <c r="D142" t="s">
         <v>696</v>
       </c>
-      <c r="E142" s="25" t="s">
+      <c r="E142" t="s">
         <v>695</v>
       </c>
-      <c r="F142" s="25" t="s">
+      <c r="F142" t="s">
         <v>697</v>
       </c>
-      <c r="G142" s="25" t="s">
+      <c r="G142" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="B143" t="s">
         <v>108</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" t="s">
         <v>109</v>
       </c>
-      <c r="D143" s="25" t="s">
+      <c r="D143" t="s">
         <v>699</v>
       </c>
-      <c r="E143" s="25" t="s">
+      <c r="E143" t="s">
         <v>109</v>
       </c>
-      <c r="F143" s="25" t="s">
+      <c r="F143" t="s">
         <v>700</v>
       </c>
-      <c r="G143" s="25" t="s">
+      <c r="G143" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>694</v>
       </c>
@@ -5818,7 +5809,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="22" t="s">
         <v>559</v>
       </c>
@@ -5841,7 +5832,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>562</v>
       </c>
@@ -5864,7 +5855,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>558</v>
       </c>
@@ -5887,7 +5878,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>563</v>
       </c>
@@ -5910,7 +5901,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>560</v>
       </c>
@@ -5933,7 +5924,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>564</v>
       </c>
@@ -5956,7 +5947,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>565</v>
       </c>
@@ -5979,7 +5970,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>566</v>
       </c>
@@ -6002,7 +5993,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>567</v>
       </c>
@@ -6025,7 +6016,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>568</v>
       </c>
@@ -6048,7 +6039,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
         <v>569</v>
       </c>
@@ -6071,7 +6062,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>570</v>
       </c>
@@ -6094,76 +6085,76 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="26" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B157" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C157" s="25" t="s">
+      <c r="B157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" t="s">
         <v>324</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="D157" t="s">
         <v>602</v>
       </c>
-      <c r="E157" s="25" t="s">
+      <c r="E157" t="s">
         <v>324</v>
       </c>
-      <c r="F157" s="25" t="s">
+      <c r="F157" t="s">
         <v>603</v>
       </c>
-      <c r="G157" s="25" t="s">
+      <c r="G157" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="26" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B158" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C158" s="25" t="s">
+      <c r="B158" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" t="s">
         <v>297</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" t="s">
         <v>577</v>
       </c>
-      <c r="E158" s="25" t="s">
+      <c r="E158" t="s">
         <v>297</v>
       </c>
-      <c r="F158" s="25" t="s">
+      <c r="F158" t="s">
         <v>578</v>
       </c>
-      <c r="G158" s="25" t="s">
+      <c r="G158" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B159" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C159" s="25" t="s">
+      <c r="B159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" t="s">
         <v>707</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D159" t="s">
         <v>708</v>
       </c>
-      <c r="E159" s="25" t="s">
+      <c r="E159" t="s">
         <v>707</v>
       </c>
-      <c r="F159" s="25" t="s">
+      <c r="F159" t="s">
         <v>709</v>
       </c>
-      <c r="G159" s="25" t="s">
+      <c r="G159" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="23" t="s">
         <v>706</v>
       </c>
@@ -6186,7 +6177,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>608</v>
       </c>
@@ -6209,7 +6200,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>609</v>
       </c>
@@ -6232,7 +6223,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>605</v>
       </c>
@@ -6255,7 +6246,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>610</v>
       </c>
@@ -6278,7 +6269,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>606</v>
       </c>
@@ -6301,7 +6292,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>611</v>
       </c>
@@ -6324,7 +6315,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>612</v>
       </c>
@@ -6347,7 +6338,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>613</v>
       </c>
@@ -6370,7 +6361,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>614</v>
       </c>
@@ -6393,7 +6384,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>615</v>
       </c>
@@ -6416,7 +6407,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>509</v>
       </c>
@@ -6439,76 +6430,76 @@
         <v>644</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B172" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C172" s="25" t="s">
+      <c r="B172" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" t="s">
         <v>645</v>
       </c>
-      <c r="E172" s="25" t="s">
+      <c r="E172" t="s">
         <v>307</v>
       </c>
-      <c r="F172" s="25" t="s">
+      <c r="F172" t="s">
         <v>646</v>
       </c>
-      <c r="G172" s="25" t="s">
+      <c r="G172" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B173" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C173" s="25" t="s">
+      <c r="B173" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" t="s">
         <v>620</v>
       </c>
-      <c r="D173" s="25" t="s">
+      <c r="D173" t="s">
         <v>621</v>
       </c>
-      <c r="E173" s="25" t="s">
+      <c r="E173" t="s">
         <v>620</v>
       </c>
-      <c r="F173" s="25" t="s">
+      <c r="F173" t="s">
         <v>622</v>
       </c>
-      <c r="G173" s="25" t="s">
+      <c r="G173" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B174" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C174" s="25" t="s">
+      <c r="B174" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" t="s">
         <v>297</v>
       </c>
-      <c r="D174" s="25" t="s">
+      <c r="D174" t="s">
         <v>717</v>
       </c>
-      <c r="E174" s="25" t="s">
+      <c r="E174" t="s">
         <v>297</v>
       </c>
-      <c r="F174" s="25" t="s">
+      <c r="F174" t="s">
         <v>718</v>
       </c>
-      <c r="G174" s="25" t="s">
+      <c r="G174" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="23" t="s">
         <v>714</v>
       </c>
@@ -6531,8 +6522,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="27" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="11" t="s">
         <v>650</v>
       </c>
       <c r="B176" t="s">
@@ -6554,7 +6545,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>654</v>
       </c>
@@ -6577,7 +6568,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
         <v>656</v>
       </c>
@@ -6600,7 +6591,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>648</v>
       </c>
@@ -6623,7 +6614,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
         <v>656</v>
       </c>
@@ -6646,7 +6637,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>666</v>
       </c>
@@ -6669,7 +6660,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
         <v>662</v>
       </c>
@@ -6692,7 +6683,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>663</v>
       </c>
@@ -6715,7 +6706,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="s">
         <v>664</v>
       </c>
@@ -6738,7 +6729,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
         <v>665</v>
       </c>
@@ -6761,7 +6752,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="s">
         <v>649</v>
       </c>
@@ -6784,7 +6775,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
         <v>654</v>
       </c>
@@ -6807,7 +6798,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="11" t="s">
         <v>715</v>
       </c>
@@ -6830,7 +6821,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="11" t="s">
         <v>716</v>
       </c>
@@ -6868,127 +6859,127 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6996,42 +6987,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -7049,142 +7040,142 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -7202,104 +7193,104 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -7317,34 +7308,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7362,79 +7353,79 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7452,19 +7443,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
